--- a/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_israeli.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_israeli.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641687-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Israeli Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641692-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Kb1tQy3SkYr46sFpCKV5vWx5GbE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2047x0:2049x2):format(webp)/8242686-86561bb9cdb141dc8b178a59088bb7e5.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282084/creamy-israeli-style-hummus/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Creamy Israeli-Style Hummus</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon peanut butter\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon onion powder\n\n\n½ teaspoon salt\n\n\n1 clove garlic, minced\n\n\n1 tablespoon sliced green onions, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon peanut butter\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon sesame oil\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon onion powder\n\n\n½ teaspoon salt\n\n\n1 clove garlic, minced\n\n\n1 tablespoon sliced green onions, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 2 tablespoons chickpea liquid and 1 cup chickpeas in a bowl for hummus. Reserve remaining chickpeas and liquid for another use."},{"recipe_directions":"Combine olive oil, peanut butter, lemon juice, sesame oil, cumin, onion powder, and salt in a blender. Blend until smooth, about 2 minutes. Pour in chickpeas and liquid and blend until creamy, 2 to 5 minutes."},{"recipe_directions":"Transfer to an airtight container and chill in the refrigerator for at least 2 hours before serving. Garnish with green onions to serve."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n6g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641695-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PJoZDxKJh8jlpoqEejWS72Et6rA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/883965-49ba99a106034f6ebce618f66689fb1b.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57998/apples-in-pajamas/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Apples in Pajamas</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 serving"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large Granny smith apples - peeled, cored and sliced into 1/2 inch thick rings\n\n\n⅔ cup all-purpose flour\n\n\n1 pinch salt\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n⅓ cup milk\n\n\n¼ cup water\n\n\n4 cups oil for frying, or as needed\n\n\n½ teaspoon ground cinnamon\n\n\n2 tablespoons white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large Granny smith apples - peeled, cored and sliced into 1/2 inch thick rings\n\n\n⅔ cup all-purpose flour\n\n\n1 pinch salt\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n⅓ cup milk\n\n\n¼ cup water\n\n\n4 cups oil for frying, or as needed\n\n\n½ teaspoon ground cinnamon\n\n\n2 tablespoons white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a shallow bowl, stir together the flour and salt. Whisk in the eggs, 1 tablespoon of oil, milk, and water until batter is smooth. The batter should be just thick enough to stick to the apples and coat them. If the batter is too thin, more flour may be added. If the batter does not want to stick, toss the apples with a bit of flour."},{"recipe_directions":"Heat one inch of vegetable oil in a deep heavy skillet to 375 degrees F (190 degrees C)."},{"recipe_directions":"Coat apple slices with batter, and place 4 or 5 slices into the hot oil at a time. Fry until golden on one side, then use tongs to flip and fry until brown on the other side. Drain on paper towels. Stir together the cinnamon and sugar; sprinkle over the apple slices before serving."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n14g \nFat\n\n\n25g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641700-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/A8FVKLiMusBPjlAcZOssphS26k4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2937524-5be0cea14e4143d5a023dea7b4663ca2.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236273/fresh-israeli-salad/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Fresh Israeli Salad</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  vine-ripened tomatoes, cut into 1/4-inch cubes\n\n\n1  red bell pepper, cut into 1/4-inch cubes\n\n\n1  green bell pepper, cut into 1/4-inch cubes\n\n\n½  seedless cucumber, cut into 1/4-inch cubes\n\n\n2  radishes, cut into 1/8-inch cubes\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1  scallion, cut into 1/8-inch cubes\n\n\n1 teaspoon lemon juice, or to taste\n\n\n½ teaspoon ground sumac\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  vine-ripened tomatoes, cut into 1/4-inch cubes\n\n\n1  red bell pepper, cut into 1/4-inch cubes\n\n\n1  green bell pepper, cut into 1/4-inch cubes\n\n\n½  seedless cucumber, cut into 1/4-inch cubes\n\n\n2  radishes, cut into 1/8-inch cubes\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1  scallion, cut into 1/8-inch cubes\n\n\n1 teaspoon lemon juice, or to taste\n\n\n½ teaspoon ground sumac\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss tomatoes, red bell pepper, green bell pepper, cucumber, radishes, olive oil, scallion, lemon juice, sumac, and salt together in a bowl; let stand for flavors to blend, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"127\nCalories\n\n\n9g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641706-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iA1XwFscT8HS83soxgYX5WKM13U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/780386-e44419e73fde4e519c50ffe5588c82a6.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213716/shakshooka/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Shakshooka</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n4 cloves garlic, thinly sliced\n\n\n1  onion, chopped\n\n\n1  jalapeno pepper, sliced\n\n\n1 large red bell pepper, chopped\n\n\n2  tomatoes, coarsely chopped\n\n\n2 tablespoons sweet paprika\n\n\n2 tablespoons hot paprika\n\n\n  salt and pepper to taste\n\n\n1 (6 ounce) can tomato paste\n\n\n¾ cup water\n\n\n¼ teaspoon saffron\n\n\n¼ cup chopped fresh parsley\n\n\n6  eggs"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n4 cloves garlic, thinly sliced\n\n\n1  onion, chopped\n\n\n1  jalapeno pepper, sliced\n\n\n1 large red bell pepper, chopped\n\n\n2  tomatoes, coarsely chopped\n\n\n2 tablespoons sweet paprika\n\n\n2 tablespoons hot paprika\n\n\n  salt and pepper to taste\n\n\n1 (6 ounce) can tomato paste\n\n\n¾ cup water\n\n\n¼ teaspoon saffron\n\n\n¼ cup chopped fresh parsley\n\n\n6  eggs'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a skillet over medium heat. Stir in the garlic, onion, and jalapeno; cook and stir until the onion has softened and turned translucent, about 5 minutes. Add the bell pepper and tomatoes."},{"recipe_directions":"Cook the vegetables until the tomatoes have broken down and released their juices, about 10 minutes. Stir in the sweet paprika, hot paprika, salt, and pepper and let the mixture simmer for 3 minutes. Add the tomato paste and water and mix well."},{"recipe_directions":"When the vegetables have a sauce-like consistency, add the saffron and parsley. Crack the eggs on top of the sauce (as though you're making sunnyside-up eggs); cover the pan and let the eggs cook for 10 to 15 minutes or until the yolks reach your desired consistency."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n10g \nFat\n\n\n16g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641710-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gm05niByvj51LuG9DQZ8dhjgPNA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1122101-9ce49002a56e4def8a06b8b3dccd06f8.jpg"
@@ -463,59 +788,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237412/israeli-charoset/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Israeli Charoset</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  apples, cored and quartered\n\n\n3  bananas, broken into chunks\n\n\n1 cup dates, pitted\n\n\n1 cup chopped walnuts\n\n\n1  orange, zested and juiced\n\n\n  lemon, zested and juiced\n\n\n2 teaspoons ground cinnamon\n\n\n2 teaspoons white sugar\n\n\n⅓ cup dry red wine\n\n\n2 tablespoons matzo meal, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  apples, cored and quartered\n\n\n3  bananas, broken into chunks\n\n\n1 cup dates, pitted\n\n\n1 cup chopped walnuts\n\n\n1  orange, zested and juiced\n\n\n  lemon, zested and juiced\n\n\n2 teaspoons ground cinnamon\n\n\n2 teaspoons white sugar\n\n\n⅓ cup dry red wine\n\n\n2 tablespoons matzo meal, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend apples, bananas, dates, walnuts, orange zest and juice, lemon zest and juice, cinnamon, and sugar in a food processor until chunky. Transfer apple mixture to a bowl and stir in wine. Gradually stir matzo meal into apple mixture, adding enough to soak up the wine; chill in refrigerator."},{"recipe_directions":"Substitute peanuts for walnuts if eating kitniyos."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Chutney Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"185\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641714-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4B_lfwVzeBfforCevubp9qAxzwA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4559944-9a44a51d21fd48ba80bda36b7b3fe24c.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/36992/california-style-israeli-salad/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>California Style Israeli Salad</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  roma (plum) tomatoes, diced\n\n\n1  English cucumber, peeled and diced\n\n\n1 cup peeled, chopped jicama\n\n\n1 small yellow bell pepper, diced\n\n\n½ cup diced red onion\n\n\n3 tablespoons fresh lemon juice\n\n\n3 tablespoons extra virgin olive oil\n\n\n1 tablespoon dried parsley\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  roma (plum) tomatoes, diced\n\n\n1  English cucumber, peeled and diced\n\n\n1 cup peeled, chopped jicama\n\n\n1 small yellow bell pepper, diced\n\n\n½ cup diced red onion\n\n\n3 tablespoons fresh lemon juice\n\n\n3 tablespoons extra virgin olive oil\n\n\n1 tablespoon dried parsley\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, toss together the tomatoes, cucumber, jicama, bell pepper, and red onion. Add the lemon juice, olive oil, and parsley, and mix thoroughly to coat. Season with salt and pepper. Serve cold, or at room temperature."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n7g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641717-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qDPWVlgZ_pi6lm_hgG6YjNQGRFM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/207528-f1e569a5d18e43c9976860bce303312c.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/102744/yummy-matzo-rolls/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Yummy Matzo Rolls</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 rolls"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 teaspoon salt\n\n\n¼ cup vegetable oil\n\n\n¼ cup margarine\n\n\n2 cups matzo cake meal\n\n\n6  egg"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 teaspoon salt\n\n\n¼ cup vegetable oil\n\n\n¼ cup margarine\n\n\n2 cups matzo cake meal\n\n\n6  egg'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring the water to boil in a saucepan. Add the salt, oil and margarine. When it returns to a boil, gradually stir in the matzo meal, continuing to stir until the mixture becomes a solid lump. Remove from the heat and let cool slightly."},{"recipe_directions":"When the mixture is cool, stir in the eggs until a smooth texture is achieved. Let stand for 30 minutes. Form into four balls and place on a greased baking pan."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Bake the rolls for 30 minutes. Turn off the oven and leave the rolls inside for 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"480\nCalories\n\n\n33g \nFat\n\n\n35g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641721-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vaq6yClJiQEfN43KkHaiv3QU7O8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/448225-7f86215f1350440499e3076163b1a5d4.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/106852/eggplant-roasted-pepper-and-chicken-pitas/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Eggplant, Roasted Pepper and Chicken Pitas</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 sandwiches"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggplants, cut into 1/2-inch slices\n\n\n1 tablespoon salt\n\n\n2 (6 ounce) skinless, boneless chicken breast halves\n\n\n  all-purpose flour for dusting\n\n\n2  eggs, beaten\n\n\n1 cup seasoned bread crumbs\n\n\n4 tablespoons olive oil\n\n\n3 cloves garlic, peeled, or more to taste\n\n\n2 tablespoons red wine vinegar\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 (12 ounce) jar roasted red peppers, sliced\n\n\n  salt and pepper to taste\n\n\n6  (6-inch) pita breads"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggplants, cut into 1/2-inch slices\n\n\n1 tablespoon salt\n\n\n2 (6 ounce) skinless, boneless chicken breast halves\n\n\n  all-purpose flour for dusting\n\n\n2  eggs, beaten\n\n\n1 cup seasoned bread crumbs\n\n\n4 tablespoons olive oil\n\n\n3 cloves garlic, peeled, or more to taste\n\n\n2 tablespoons red wine vinegar\n\n\n2 tablespoons extra-virgin olive oil\n\n\n1 (12 ounce) jar roasted red peppers, sliced\n\n\n  salt and pepper to taste\n\n\n6  (6-inch) pita breads'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Sprinkle sliced eggplant with salt and allow to drain in a colander for 20 minutes. Meanwhile, preheat a grill for medium-high heat (see Cook's Note)."},{"recipe_directions":"Pound chicken breasts between two sheets of plastic wrap to a thickness of 1/4-inch. Dredge with flour, shake off excess, dip into beaten egg, then press into seasoned bread crumbs to coat."},{"recipe_directions":"Heat 2 tablespoons of olive oil in a skillet over medium-high heat. Add chicken breasts and cook until golden brown. Set aside."},{"recipe_directions":"Wipe eggplant dry with a paper towel. If grilling, brush slices with remaining 2 tablespoons olive oil. Grill until tender and well marked."},{"recipe_directions":"Crush garlic with a mortar and pestle with a pinch of salt. Whisk together garlic, red wine vinegar, and extra-virgin olive oil. Slice grilled eggplant into strips and toss with roasted peppers and balsamic dressing; season to taste with salt and pepper."},{"recipe_directions":"To assemble, heat pita breads on the grill until hot and marked. Slice chicken into strips and place into warm pitas along with marinated eggplant and red peppers."},{"recipe_directions":"You can make your own roasted red peppers instead of buying them. This makes great leftovers--just assemble the sandwiches right before eating."},{"recipe_directions":"You can also fry the eggplant rounds instead of grilling. Pour canola oil about 1/2 inch deep in a cast iron skillet or heavy pan. Heat over medium-high heat. Wipe salted eggplant slices dry with a paper towel. Working in batches, fry eggplant until golden brown on each side. Lay cooked eggplant on a plate lined with double sheets of paper towels, because eggplant soaks up a lot of oil."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"492\nCalories\n\n\n18g \nFat\n\n\n60g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641726-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jQFfmpIkoz8COX4hoKM6h-PZwWU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/922634-6eac2e688e234264bf9d93f52df7d479.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/98087/tahini-butter-cookies/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Tahini Butter Cookies</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n50 \n\n\nYield:\n50 cookies"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup butter\n\n\n½ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ cup tahini\n\n\n1 ¼ cups all-purpose flour\n\n\n½ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup butter\n\n\n½ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n½ cup tahini\n\n\n1 ¼ cups all-purpose flour\n\n\n½ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Cream together the butter and sugar until fluffy. Add vanilla and tahini, mix until well combined. In a separate bowl, sift together the flour and baking powder, then stir into butter mixture. Drop onto an ungreased cookie sheet in tablespoon-sized pieces."},{"recipe_directions":"Bake in preheated oven until they turn golden brown, about 15 minutes. Cool on the cookie sheet 10 to 15 minutes before removing to cool on a wire rack."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"66\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641731-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IAqdyzcVy0tuZL3AbDOUC1JjXfo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1727x0:1729x2):format(webp)/6420668-18e809ad185a4ef883ef9b674a03ef3e.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270767/curried-israeli-couscous/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Curried Israeli Couscous</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n¼ cup minced onion\n\n\n2 cubes  vegetable bouillon\n\n\n1 teaspoon yellow curry powder\n\n\n½ teaspoon oregano\n\n\n2 cups pearl (Israeli) couscous\n\n\n2 ½ cups water"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n¼ cup minced onion\n\n\n2 cubes  vegetable bouillon\n\n\n1 teaspoon yellow curry powder\n\n\n½ teaspoon oregano\n\n\n2 cups pearl (Israeli) couscous\n\n\n2 ½ cups water'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a saucepan over medium heat. Add onion, bouillon cubes, curry powder, and oregano. Cook, breaking up bouillon cubes, until onion is soft, about 5 minutes. Add couscous and mix thoroughly."},{"recipe_directions":"Add water to the saucepan and bring to a boil. Cover and reduce heat to low. Simmer, stirring frequently, until couscous is soft, 8 to 10 minutes."},{"recipe_directions":"Feel free to use beef or chicken bouillon if you prefer."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Curry Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n4g \nFat\n\n\n30g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641735-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C4jPe4sHWeLuL3a4n3nVql5sVLk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3610232-72f7a3447911461f8e64285c0ce1a7eb.jpg"
@@ -853,59 +1154,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222902/whole-rice-and-lentils-majadara/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Whole Rice and Lentils (Majadara)</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1 large onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n1 teaspoon chopped fresh ginger root\n\n\n1 cup brown rice\n\n\n1 cup green lentils\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cinnamon\n\n\n2 ½ cups water"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1 large onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n1 teaspoon chopped fresh ginger root\n\n\n1 cup brown rice\n\n\n1 cup green lentils\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cinnamon\n\n\n2 ½ cups water'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a pot over medium heat; cook and stir onion and garlic until onion has softened, 5 to 7 minutes. Add ginger and stir until fragrant, 1 minute. Add brown rice and stir to coat rice with oil."},{"recipe_directions":"Stir lentils, cumin, salt, black pepper, and cinnamon into rice mixture; cover with water. Place lid on pot and simmer over low heat until lentils are tender and rice has absorbed the water, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Rice"},{"recipe_tags":"Beans and Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641739-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7tZBRES7W7M1i9NwIqdZitqA5fI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6835783-0ff622410a99455b8ada7906368d0f5a.jpg"
@@ -918,59 +1215,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239826/fast-and-easy-israeli-tahini-cookies/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Fast and Easy Israeli Tahini Cookies</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n1 cup white sugar\n\n\n2 teaspoons baking powder\n\n\n14 tablespoons unsalted butter, melted\n\n\n1 cup tahini"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n1 cup white sugar\n\n\n2 teaspoons baking powder\n\n\n14 tablespoons unsalted butter, melted\n\n\n1 cup tahini'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 355 degrees F (180 degrees C). Line a baking sheet with waxed paper."},{"recipe_directions":"Mix flour, sugar, and baking powder together in a large bowl; add butter and tahini and mix until dough is crumbly. Roll dough into small balls and press each ball into a flattened cookie shape using your palms. Arrange cookies in the prepared baking sheet and press with a fork."},{"recipe_directions":"Place the baking sheet on the middle rack of the oven and bake until cookies are golden, about 10 minutes. Cool cookies on baking sheet for 2 to 3 minutes before transferring to a wire rack to cool completely."},{"recipe_directions":"Eggs are omitted in the traditional recipe for religious dietary reasons, but feel free to add them. One egg will make the cookies stronger while warm and two eggs will give them more bite and body."},{"recipe_directions":"Honey or brown sugar can be used in place of the white sugar."},{"recipe_directions":"Nuts, dried fruit, or vanilla extract can also be added to the batter."},{"recipe_directions":"It is very important to let the cookies cool all the way. They are very fragile when they come out of the oven."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"208\nCalories\n\n\n12g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641742-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hvs-hAD80oG5GY9e2DiUtWJCVR8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(324x0:326x2):format(webp)/6601063-ec40bb5ff73e4496afebabd60fd743f2.jpg"
@@ -982,59 +1275,55 @@
 10 Israeli Condiments Everyone Should Be Using</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/best-israeli-condiments/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>10 Israeli Condiments Everyone Should Be Using</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"While Passover always brings a spike in the sale of matzah and other ingredients used in traditional Jewish dishes, year-round interest in cuisine from the Mediterranean, and particularly Israel, has grown in recent years. Staple foods like olive oil and chickpeas have been recognized for their health benefits, and last year, the James Beard Foundation named an Israeli restaurant the best in America."},{"recipe_directions":"\"There has definitely been a rise in culinary flavors from Israel,\" says Shani Seidman, chief marketing officer of Kayco Kosher Food Brands, one of the largest manufacturers and distributors of kosher foods in the U.S. \"Things like sumac and pickles, which were always part of that traditional cuisine, are now entering the mainstream.\" She has also seen a growing interest in kosher foods, even among non-Jewish consumers, because \"These days, people want transparency about what goes into their food.\""},{"recipe_directions":"If all you know about Israeli food is hummus, then buckle up. There is a world of delicious flavor out there, and the following spices, sauces, and condiments are a great place to start your culinary exploration."},{"recipe_directions":"This sesame-seed paste is like the peanut butter of the Israeli world. \"It is really versatile because it's sweet and savory,\" says Adeena Sussman, author of Sababa: Fresh, Sunny Flavors From My Israeli Kitchen. It is the main ingredient in hummus, but she drizzles it over roasted vegetables or meat, and loves using it in desserts like tahini blondies and tahini caramel tarts. Find tahini sesame paste online."},{"recipe_directions":"This blend of dried herbs and spices features sumac (a ground dried berry with a tangy, lemony flavor), sesame seeds, salt, and ground thyme. You can even make your own.It's great to shake on pizza and salads or to use on meats like chicken. Sussman recommends substituting it wherever you'd use oregano or Italian seasoning. She likes the herby, almost piney flavor mixed with yogurt as a vinaigrette for a challah caprese salad. Find za'atar online."},{"recipe_directions":"Pickles are a huge part of Mediterranean cuisine, and this tangy mango one, similar to chutney, can be found at every falafel or shawarma bar, Sussman says. Mangoes are fermented and seasoned with chili pepper, turmeric, garlic, paprika, and Indian spices. Trader Joe's sells a version in a pouch for drizzling over kebobs and zoodles."},{"recipe_directions":"Heat seekers will love this bright green hot sauce, made from chili peppers and cilantro and seasoned with coriander, cumin, and garlic. And, just like any hot sauce, it goes on just about anything: falafel, grilled fish or vegetables, meat, eggs."},{"recipe_directions":"Another kind of pickle, these salt-and acid-fermented citrus fruits are often added to sandwiches or chopped and put into stews. Sussman describes their taste as \"mellower in acidity than a fresh lemon, but salty.\" Her book has a recipe for a preserved lemon paste that she uses like aioli, or spreads on salmon before roasting. Find preserved lemons online."},{"recipe_directions":"This mix of ground spices including turmeric, cardamom, cumin, and white and black pepper is commonly used in soups and stews, curries, and even Yemeni coffee."},{"recipe_directions":"Dates are a mainstay of a Mediterranean diet, and this syrup made from steamed, pressed dates can be swapped for other sweeteners in baked goods, drizzled on grilled meats and vegetables, or shaken into cocktails. Find date syrup online."},{"recipe_directions":"These jewel-toned fruits are popular in the Middle East, and the sweet and sour syrup made from them adds depth to dishes like marinades, sauces, and salad dressings. Think of it almost like a vinegar substitute."},{"recipe_directions":"This dairy product is made by straining the whey out of Greek yogurt, leaving behind an even thicker, creamier, more concentrated spread that is often used on pitas or other bread products."},{"recipe_directions":"With more than a dozen different components, this spice blend, whose name translates to \"head of the shop\" because it supposedly is a blend of a spice store's best wares, is bold. Its strong, mostly warm flavors make a great rub for meats and are often used on couscous."},{"recipe_directions":"Check out our collection of Israeli Recipes and Middle Eastern Recipes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Global Kitchen"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641747-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z_UcWqH3k6lrE9q9vwcoa4oI1ug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/253258-79c6e42a4bd949129d08cca3e7a7f31a.jpg"
@@ -1047,59 +1336,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76202/apple-and-honey-sorbet/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Apple and Honey Sorbet</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 4 hrs 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ pounds Granny Smith apples, cored and thinly sliced\n\n\n1 ½ cups water\n\n\n1 ½ cups sugar\n\n\n1 ½  lemons, juiced\n\n\n1 tablespoon honey"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ pounds Granny Smith apples, cored and thinly sliced\n\n\n1 ½ cups water\n\n\n1 ½ cups sugar\n\n\n1 ½  lemons, juiced\n\n\n1 tablespoon honey'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large, resealable plastic bag or plastic container with a lid, mix apples with the juice of 1/2 lemon. Freeze for several hours or overnight."},{"recipe_directions":"In a small saucepan, bring water and sugar to a boil. Reduce heat, and simmer for 5 minutes. Remove from heat, and stir in honey. Cool completely."},{"recipe_directions":"Place apple in a blender, and liquidize them with juice of 1 lemon and the cooled sugar syrup until as smooth as possible. The peel will add texture, and prevent the mixture from being completely smooth."},{"recipe_directions":"Transfer the mixture to an ice cream machine and freeze according to directions. Leave the sorbet out to soften 10 minutes prior to serving."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641751-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kLOHmcUcxYpGla9q0oYUwBKOATk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7939433-b1b35e08dcdf40e7b194cf1e075ab4e1.jpg"
@@ -1112,59 +1397,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214020/shakshuka-middle-eastern-breakfast-dish/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Shakshuka (Middle Eastern Breakfast Dish)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1  onion, chopped\n\n\n1  zucchini, chopped\n\n\n1 (10 ounce) can crushed tomatoes\n\n\n4 dashes hot pepper sauce (such as Tabasco®)\n\n\n4  eggs\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons vegetable oil\n\n\n2 cloves garlic, minced\n\n\n1  onion, chopped\n\n\n1  zucchini, chopped\n\n\n1 (10 ounce) can crushed tomatoes\n\n\n4 dashes hot pepper sauce (such as Tabasco®)\n\n\n4  eggs\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the vegetable oil in a skillet over medium heat. Stir in the garlic and onion; cook and stir until the onion has softened and turned translucent, about 5 minutes. Stir in zucchini; cook and stir for 5 minutes. Mix in the crushed tomatoes and hot pepper sauce. Cover and simmer for 10 minutes."},{"recipe_directions":"Make 4 wells in the tomato mixture, and crack the eggs into each well. Do not stir. Cover and cook until eggs are desired consistency, about 3 minutes for soft yolks. Carefully remove the eggs from the skillet and serve with the tomato sauce."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"249\nCalories\n\n\n15g \nFat\n\n\n16g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641754-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p7cIWfCg7AQ2F0Wna5oZZtWtQ3k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1217082-0a5b8cbb523d4c15b198cb5cea899856.jpg"
@@ -1177,59 +1458,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72560/cheese-bourekas/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Cheese Bourekas</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 squares"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs, divided\n\n\n2 cups shredded mozzarella cheese\n\n\n1 teaspoon dried parsley\n\n\n1 pinch garlic powder\n\n\n1 pinch onion powder\n\n\n1 pinch salt\n\n\n1 pinch black pepper\n\n\n1 (17.5 ounce) package frozen puff pastry\n\n\n2 teaspoons water\n\n\n2 tablespoons sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs, divided\n\n\n2 cups shredded mozzarella cheese\n\n\n1 teaspoon dried parsley\n\n\n1 pinch garlic powder\n\n\n1 pinch onion powder\n\n\n1 pinch salt\n\n\n1 pinch black pepper\n\n\n1 (17.5 ounce) package frozen puff pastry\n\n\n2 teaspoons water\n\n\n2 tablespoons sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a baking sheet."},{"recipe_directions":"Beat 1 egg in a medium bowl and mix in cheese. Season with parsley, garlic powder, onion powder, salt, and pepper. Set aside."},{"recipe_directions":"Cut each puff pastry sheet into 6 equal squares on a lightly floured surface for a total of 12 squares."},{"recipe_directions":"Beat remaining egg with water in a small bowl. Brush edges of each pastry square lightly with egg wash. Place a heaping tablespoon cheese mixture in the center of each square. Fold pastry over filling and seal edges with a fork. Transfer to the prepared baking sheet, brush tops with remaining egg wash, and sprinkle with sesame seeds."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Pastries"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"294\nCalories\n\n\n20g \nFat\n\n\n20g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641758-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8-oUfTZ1BnQ_VZ2CZu2WbLV3zG0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6052746-8404e68069da409994855c2abac5f68c.jpg"
@@ -1242,59 +1519,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/212816/foolproof-potato-latkes/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Foolproof Potato Latkes</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n10 latkes"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, peeled and cubed\n\n\n1  onion, chopped\n\n\n2  eggs\n\n\n2 teaspoons salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 teaspoon baking powder\n\n\n¼ cup canola oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, peeled and cubed\n\n\n1  onion, chopped\n\n\n2  eggs\n\n\n2 teaspoons salt\n\n\n2 tablespoons all-purpose flour, or as needed\n\n\n1 teaspoon baking powder\n\n\n¼ cup canola oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 1/4 of the potatoes, onion, eggs, salt, flour, and baking powder in the bowl of a food processor; pulse several times until the vegetables are finely chopped. Add remaining potatoes and pulse again until all potatoes are finely chopped and mixture is thoroughly combined."},{"recipe_directions":"Heat canola oil in a skillet over medium heat. Scoop up about 1/3 cup of potato mixture at a time and place in skillet. Fry latkes until brown and crisp on the bottom, 2 to 3 minutes. Flip and cook other sides until brown, 2 to 3 minutes longer."},{"recipe_directions":"Repeat with remaining potato mixture, replenishing oil as needed. Serve hot."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n13g \nFat\n\n\n37g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641761-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/udTN7a-KemcWlw8FnN5pLkD06yw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2271347-c4ebb0164e68429d850174aed77a853e.jpg"
@@ -1307,59 +1580,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242304/israeli-tomato-and-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Israeli Tomato and Cucumber Salad</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  English cucumbers, diced\n\n\n4  Roma (plum) tomatoes, seeded and diced\n\n\n½  purple onion, diced\n\n\n1  red bell pepper, seeded and diced\n\n\n2 tablespoons chopped garlic\n\n\n1 cup chopped fresh parsley\n\n\n3 tablespoons chopped fresh mint"},{"recipe_ingredients":"½ cup olive oil\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon kosher salt\n\n\n1 tablespoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  English cucumbers, diced\n\n\n4  Roma (plum) tomatoes, seeded and diced\n\n\n½  purple onion, diced\n\n\n1  red bell pepper, seeded and diced\n\n\n2 tablespoons chopped garlic\n\n\n1 cup chopped fresh parsley\n\n\n3 tablespoons chopped fresh mint'}, {'recipe_ingredients': '½ cup olive oil\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon kosher salt\n\n\n1 tablespoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss cucumbers, tomatoes, onion, bell pepper, garlic, parsley, and mint together in a bowl. Drizzle olive oil and lemon juice over the salad and toss to coat; season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"208\nCalories\n\n\n18g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641765-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vNOctbJiGMtZmL4O4Tac-r6Qv8M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2154853-1a828e66b6884a3faa4f35e63778e2bb.jpg"
@@ -1372,59 +1641,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213243/moroccan-shabbat-fish/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Moroccan Shabbat Fish</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 fillets"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  red bell pepper, cut into thin strips\n\n\n3  tomatoes, sliced\n\n\n6 (6 ounce) tilapia fillets\n\n\n2 tablespoons paprika\n\n\n1 tablespoon chicken bouillon granules\n\n\n1 teaspoon cayenne pepper\n\n\n  salt and pepper to taste\n\n\n¼ cup olive oil\n\n\n1 cup water\n\n\n¼ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  red bell pepper, cut into thin strips\n\n\n3  tomatoes, sliced\n\n\n6 (6 ounce) tilapia fillets\n\n\n2 tablespoons paprika\n\n\n1 tablespoon chicken bouillon granules\n\n\n1 teaspoon cayenne pepper\n\n\n  salt and pepper to taste\n\n\n¼ cup olive oil\n\n\n1 cup water\n\n\n¼ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 200 degrees F (95 degrees C)."},{"recipe_directions":"Layer the sliced red peppers and sliced tomatoes in the bottom of a baking dish. Arrange the tilapia fillets on top of the vegetables."},{"recipe_directions":"Combine the paprika, chicken bouillon, cayenne, salt, pepper, olive oil, and water and mix well. Pour the seasoning mixture over the fish. Sprinkle with parsley."},{"recipe_directions":"Cover the baking dish with aluminum foil and bake in the preheated oven until the fish flakes easily with a fork and the vegetables are tender, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"African"},{"recipe_tags":"North African"},{"recipe_tags":"Moroccan"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n12g \nFat\n\n\n6g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641768-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sNqHlbiQAq-2b3-lWinunO4SWwA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4562327-authentic-middle-eastern-hummus-chummus-Buckwheat-Queen-4x3-1-72c9c635847547a7acae76104a671066.jpg"
@@ -1438,59 +1703,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/161082/authentic-middle-eastern-hummus-chummus/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Authentic Middle Eastern Hummus (Chummus)</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry garbanzo beans, soaked overnight\n\n\n1 pinch baking soda (Optional)\n\n\n½ cup extra-virgin olive oil\n\n\n¾ cup tahini paste\n\n\n¼ cup fresh lemon juice, or more to taste\n\n\n1 large clove garlic, minced, or more to taste\n\n\n1 teaspoon ground cumin\n\n\n  salt to taste\n\n\n1 tablespoon extra virgin olive oil, for drizzling"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry garbanzo beans, soaked overnight\n\n\n1 pinch baking soda (Optional)\n\n\n½ cup extra-virgin olive oil\n\n\n¾ cup tahini paste\n\n\n¼ cup fresh lemon juice, or more to taste\n\n\n1 large clove garlic, minced, or more to taste\n\n\n1 teaspoon ground cumin\n\n\n  salt to taste\n\n\n1 tablespoon extra virgin olive oil, for drizzling'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse the garbanzo beans and and place in a pot. Fill with enough water to cover by at least 1 inch. Add baking soda, if using. Bring to a boil and then simmer over medium heat until the beans are very soft, 1 1/2 to 2 hours."},{"recipe_directions":"Drain the beans, reserving some of the water to use later. Reserve a small handful of the whole beans for a garnish. Transfer the rest to a blender or if you have a hand blender, a large bowl. Blend the beans until smooth, adding 1/2 cup of olive oil gradually. Add some of the reserved water if needed to help it blend. Add the tahini and blend in along with the lemon juice. Blend in the garlic, cumin and salt."},{"recipe_directions":"Spread the hummus into a flat serving dish and garnish with the reserved beans and a drizzle of olive oil."},{"recipe_directions":"Use freshly squeezed lemon juice for best results. Add more lemon juice or garlic incrementally to suit your taste. Add enough hot water when blending so that the chummus becomes a smooth, rather thick dip rather than a clumpy paste. Chummus has a tendency to thicken up as it cools and water can be added later if desired. This chummus freezes very well and tastes fresh when defrosted."},{"recipe_directions":"For a fresher taste, use fresh, hot water to thin instead of the bean soaking liquid."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"551\nCalories\n\n\n32g \nFat\n\n\n51g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641772-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1826/world-cuisine/middle-eastern/israeli/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lmzW558aNfJtw_p1aRDsB2CzdxE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4500866-1c34643967f8483a861df02fc0a4033d.jpg"
@@ -1503,42 +1764,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143265/middle-eastern-kibbeh/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Middle Eastern Kibbeh</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n32 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup medium coarse bulgur\n\n\n1 cup fresh mint leaves\n\n\n1 large onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 ½ pounds lean ground lamb\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup medium coarse bulgur\n\n\n1 cup fresh mint leaves\n\n\n1 large onion, chopped\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 ½ pounds lean ground lamb\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bulgur in a microwave-safe bowl and cover with water just to the top of the bulgur. Place in the microwave and cook on High 1 to 2 minutes until bulgur is swollen and the water is absorbed. Toss briefly and allow to stand until cool."},{"recipe_directions":"Place the mint leaves in the bowl of a food processor. Process, gradually adding onion through the feed tube, until both mint and onion are finely chopped. Stir the mint-onion mixture into the bulgur, with the cumin, allspice, salt, and pepper. Stir the bulgur mixture into the ground lamb and mix thoroughly. Using damp hands, shape the lamb mixture into small, palm-sized patties."},{"recipe_directions":"Place the olive oil in a skillet and heat over medium heat. Add the kibbeh patties and cook until outside is golden brown and center is cooked through, turning once, about 6 minutes on each side."},{"recipe_directions":"Kibbeh can also be baked in the oven. Preheat oven to 350 degrees F (175 degrees C). Press the lamb mixture evenly 3/4 to 1 inch thick into an 8x8 inch pan. Drizzle 3 tablespoons olive oil over the top. Bake in preheated oven until the top is light brown, 35 to 40 minutes depending on thickness. Cool, cut into diamond pieces while still in the pan, and serve."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Israeli"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n10g \nFat\n\n\n7g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>